--- a/datamining/final_data/topic0_candidates.xlsx
+++ b/datamining/final_data/topic0_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3064</v>
+        <v>0.7258493333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.11027</v>
+        <v>0.5684146666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.50814</v>
+        <v>0.5454543333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.19702</v>
+        <v>0.5206675000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.15329</v>
+        <v>0.5167448333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.23506</v>
+        <v>0.494658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.38023</v>
+        <v>0.4945295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.61278</v>
+        <v>0.4735048333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06317</v>
+        <v>0.4646303333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.12858</v>
+        <v>0.4603621666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5934700000000001</v>
+        <v>0.4541156666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.17724</v>
+        <v>0.4523343333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.29393</v>
+        <v>0.4444898333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.49883</v>
+        <v>0.4417963333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3758</v>
+        <v>0.4264185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09878000000000001</v>
+        <v>0.4244005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.38631</v>
+        <v>0.4222763333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6579199999999999</v>
+        <v>0.421315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.36813</v>
+        <v>0.4203863333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.34888</v>
+        <v>0.41317</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.22523</v>
+        <v>0.4109205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.14867</v>
+        <v>0.4047436666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.18046</v>
+        <v>0.3911480000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.12029</v>
+        <v>0.3871888333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.49517</v>
+        <v>0.3853011666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.25269</v>
+        <v>0.3851356666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.10917</v>
+        <v>0.3823758333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.16273</v>
+        <v>0.379128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.51415</v>
+        <v>0.3743548333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.13495</v>
+        <v>0.3724523333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3763</v>
+        <v>0.3644128333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.47961</v>
+        <v>0.3601373333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.12865</v>
+        <v>0.3525578333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.51288</v>
+        <v>0.3485781666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.16579</v>
+        <v>0.3370045</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03622</v>
+        <v>0.326844</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.17123</v>
+        <v>0.3244276666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1247</v>
+        <v>0.3238846666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.26053</v>
+        <v>0.3196286666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05268</v>
+        <v>0.3194713333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.24267</v>
+        <v>0.3185466666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.53242</v>
+        <v>0.3114018333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0837</v>
+        <v>0.283056</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.45213</v>
+        <v>0.2424731666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.47331</v>
+        <v>0.2400665</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5505100000000001</v>
+        <v>0.237441</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.14982</v>
+        <v>0.2361633333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.11711</v>
+        <v>0.2215555</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10993</v>
+        <v>0.2212406666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1546</v>
+        <v>0.2181408333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.48347</v>
+        <v>0.205783</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.52449</v>
+        <v>0.2054073333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.47774</v>
+        <v>0.2024641666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.11005</v>
+        <v>0.2018045</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.11135</v>
+        <v>0.197864</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5276</v>
+        <v>0.1811031666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.48554</v>
+        <v>0.175751</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5044</v>
+        <v>0.1723858333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0704</v>
+        <v>0.1712445</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.63362</v>
+        <v>0.1591735</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.47395</v>
+        <v>0.1503871666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.57064</v>
+        <v>0.1503698333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0803</v>
+        <v>0.1464158333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.21177</v>
+        <v>0.1429731666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.21705</v>
+        <v>0.1400703333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3775</v>
+        <v>0.1398835</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.16721</v>
+        <v>0.1384755</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.29417</v>
+        <v>0.1376553333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.26991</v>
+        <v>0.1320856666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.10034</v>
+        <v>0.1309708333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.07698000000000001</v>
+        <v>0.125492</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.65932</v>
+        <v>0.1200501666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5155</v>
+        <v>0.1193891666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.11293</v>
+        <v>0.1092786666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.11218</v>
+        <v>0.1076778333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.17586</v>
+        <v>0.102296</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.15712</v>
+        <v>0.099962</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.56595</v>
+        <v>0.0985325</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.26869</v>
+        <v>0.09839283333333332</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.17608</v>
+        <v>0.09309183333333335</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.41487</v>
+        <v>0.0914065</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09999</v>
+        <v>0.09036</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.46015</v>
+        <v>0.08911316666666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.25052</v>
+        <v>0.08391949999999998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.48933</v>
+        <v>0.08069966666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.27211</v>
+        <v>0.07960033333333334</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.52841</v>
+        <v>0.0795115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0229</v>
+        <v>0.07537199999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.12721</v>
+        <v>0.073378</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.40652</v>
+        <v>0.072809</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.25803</v>
+        <v>0.07229966666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.41783</v>
+        <v>0.069491</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6124000000000001</v>
+        <v>0.06279650000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.17537</v>
+        <v>0.05588866666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.81434</v>
+        <v>0.05366916666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1408</v>
+        <v>0.05178983333333334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.44737</v>
+        <v>0.047843</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.48008</v>
+        <v>0.031106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.40128</v>
+        <v>0.03065666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.41003</v>
+        <v>0.00515083333333333</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic0_candidates.xlsx
+++ b/datamining/final_data/topic0_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7258493333333333</v>
+        <v>0.7508568333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5684146666666667</v>
+        <v>0.6748080000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5454543333333333</v>
+        <v>0.6036143333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5206675000000001</v>
+        <v>0.5745125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5167448333333333</v>
+        <v>0.5488505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.494658</v>
+        <v>0.5454543333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4945295</v>
+        <v>0.5397976666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4735048333333334</v>
+        <v>0.5375003333333332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4646303333333334</v>
+        <v>0.5366928333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4603621666666667</v>
+        <v>0.5271465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4541156666666666</v>
+        <v>0.5151888333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4523343333333333</v>
+        <v>0.5136343333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4444898333333333</v>
+        <v>0.5045263333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4417963333333333</v>
+        <v>0.494658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4264185</v>
+        <v>0.494658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4244005</v>
+        <v>0.4944938333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4222763333333333</v>
+        <v>0.4896671666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.421315</v>
+        <v>0.4791166666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4203863333333333</v>
+        <v>0.4705168333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.41317</v>
+        <v>0.4437838333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4109205</v>
+        <v>0.4311036666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4047436666666667</v>
+        <v>0.4252715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3911480000000001</v>
+        <v>0.4250145</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3871888333333333</v>
+        <v>0.4062676666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3853011666666666</v>
+        <v>0.4046838333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3851356666666667</v>
+        <v>0.4019606666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3823758333333334</v>
+        <v>0.3967936666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.379128</v>
+        <v>0.3910939999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3743548333333333</v>
+        <v>0.3844165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3724523333333333</v>
+        <v>0.3813526666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3644128333333333</v>
+        <v>0.3573671666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3601373333333333</v>
+        <v>0.355622</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3525578333333333</v>
+        <v>0.3544323333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3485781666666667</v>
+        <v>0.3489635</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3370045</v>
+        <v>0.340646</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.326844</v>
+        <v>0.3367135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3244276666666667</v>
+        <v>0.3315608333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3238846666666667</v>
+        <v>0.3303665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3196286666666667</v>
+        <v>0.3284653333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3194713333333333</v>
+        <v>0.3281675</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3185466666666666</v>
+        <v>0.3214893333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3114018333333333</v>
+        <v>0.3191463333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.283056</v>
+        <v>0.3189626666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2424731666666667</v>
+        <v>0.3130581666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2400665</v>
+        <v>0.3086931666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.237441</v>
+        <v>0.3062381666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2361633333333333</v>
+        <v>0.3058638333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2215555</v>
+        <v>0.2910421666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2212406666666667</v>
+        <v>0.2830045</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2181408333333333</v>
+        <v>0.273925</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.205783</v>
+        <v>0.2736756666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2054073333333333</v>
+        <v>0.2633251666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2024641666666666</v>
+        <v>0.2566013333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2018045</v>
+        <v>0.2561528333333334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.197864</v>
+        <v>0.2540521666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1811031666666667</v>
+        <v>0.2487758333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.175751</v>
+        <v>0.2400335</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1723858333333333</v>
+        <v>0.237358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1712445</v>
+        <v>0.2330155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1591735</v>
+        <v>0.2330155</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1503871666666667</v>
+        <v>0.23151</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1503698333333333</v>
+        <v>0.2224461666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1464158333333333</v>
+        <v>0.2203013333333334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1429731666666667</v>
+        <v>0.2194395</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1400703333333333</v>
+        <v>0.2063338333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1398835</v>
+        <v>0.2062275</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1384755</v>
+        <v>0.2057708333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1376553333333333</v>
+        <v>0.2043663333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1320856666666667</v>
+        <v>0.1944181666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1309708333333333</v>
+        <v>0.1862071666666666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.125492</v>
+        <v>0.1851141666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1200501666666667</v>
+        <v>0.1777668333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1193891666666667</v>
+        <v>0.1752948333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1092786666666666</v>
+        <v>0.1697195</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1076778333333333</v>
+        <v>0.1687876666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.102296</v>
+        <v>0.1591735</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.099962</v>
+        <v>0.155721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0985325</v>
+        <v>0.1546303333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09839283333333332</v>
+        <v>0.1545295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09309183333333335</v>
+        <v>0.1510195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0914065</v>
+        <v>0.1503411666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09036</v>
+        <v>0.1400883333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08911316666666666</v>
+        <v>0.1391198333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08391949999999998</v>
+        <v>0.1390451666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08069966666666667</v>
+        <v>0.1309488333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07960033333333334</v>
+        <v>0.1298558333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0795115</v>
+        <v>0.124032</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07537199999999999</v>
+        <v>0.1145186666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.073378</v>
+        <v>0.1090121666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.072809</v>
+        <v>0.096301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07229966666666666</v>
+        <v>0.08937400000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.069491</v>
+        <v>0.08523550000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06279650000000001</v>
+        <v>0.07960033333333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05588866666666666</v>
+        <v>0.07618066666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05366916666666667</v>
+        <v>0.07433283333333332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05178983333333334</v>
+        <v>0.07285533333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.047843</v>
+        <v>0.06630233333333334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.031106</v>
+        <v>0.05394016666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03065666666666667</v>
+        <v>0.04783216666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.00515083333333333</v>
+        <v>0.0368575</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic0_candidates.xlsx
+++ b/datamining/final_data/topic0_candidates.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -452,11 +452,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6748080000000001</v>
+        <v>0.7508568333333334</v>
       </c>
     </row>
     <row r="4">
@@ -482,31 +482,31 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5488505</v>
+        <v>0.5655415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5454543333333333</v>
+        <v>0.5578081666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5397976666666667</v>
+        <v>0.5454543333333333</v>
       </c>
     </row>
     <row r="9">
@@ -522,31 +522,31 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5366928333333334</v>
+        <v>0.5271465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5271465</v>
+        <v>0.520012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5151888333333333</v>
+        <v>0.5139994999999999</v>
       </c>
     </row>
     <row r="13">
@@ -612,21 +612,21 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4791166666666666</v>
+        <v>0.4869528333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4705168333333333</v>
+        <v>0.4632438333333333</v>
       </c>
     </row>
     <row r="21">
@@ -642,797 +642,797 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4311036666666666</v>
+        <v>0.4170268333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4252715</v>
+        <v>0.4062676666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4250145</v>
+        <v>0.4046838333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4062676666666667</v>
+        <v>0.4019606666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4046838333333334</v>
+        <v>0.3985704999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4019606666666667</v>
+        <v>0.3910939999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3967936666666666</v>
+        <v>0.3844165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3910939999999999</v>
+        <v>0.359944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3844165</v>
+        <v>0.3536341666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3813526666666667</v>
+        <v>0.3417386666666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3573671666666667</v>
+        <v>0.340646</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.355622</v>
+        <v>0.3303665</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3544323333333333</v>
+        <v>0.328678</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3489635</v>
+        <v>0.3281675</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.340646</v>
+        <v>0.3198896666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3367135</v>
+        <v>0.314714</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3315608333333333</v>
+        <v>0.311379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3303665</v>
+        <v>0.3058638333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3284653333333333</v>
+        <v>0.2830045</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3281675</v>
+        <v>0.2780903333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3214893333333333</v>
+        <v>0.2736756666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3191463333333333</v>
+        <v>0.2632111666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3189626666666667</v>
+        <v>0.2566013333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3130581666666666</v>
+        <v>0.2561528333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3086931666666666</v>
+        <v>0.2540521666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3062381666666666</v>
+        <v>0.2495998333333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3058638333333333</v>
+        <v>0.2487758333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2910421666666667</v>
+        <v>0.2404358333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2830045</v>
+        <v>0.2400335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.273925</v>
+        <v>0.237358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2736756666666667</v>
+        <v>0.237127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2633251666666667</v>
+        <v>0.2330155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2566013333333333</v>
+        <v>0.2330155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2561528333333334</v>
+        <v>0.2238563333333334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2540521666666666</v>
+        <v>0.2228396666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2487758333333333</v>
+        <v>0.2224461666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2400335</v>
+        <v>0.2194395</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.237358</v>
+        <v>0.2131465</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2330155</v>
+        <v>0.2063338333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2330155</v>
+        <v>0.2062275</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.23151</v>
+        <v>0.2057708333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2224461666666667</v>
+        <v>0.2043663333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2203013333333334</v>
+        <v>0.1944181666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2194395</v>
+        <v>0.1917113333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2063338333333333</v>
+        <v>0.1862071666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2062275</v>
+        <v>0.1851141666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2057708333333333</v>
+        <v>0.1777668333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2043663333333333</v>
+        <v>0.1774806666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1944181666666667</v>
+        <v>0.1752948333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1862071666666666</v>
+        <v>0.1697195</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1851141666666667</v>
+        <v>0.1687876666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1777668333333333</v>
+        <v>0.1591735</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1752948333333333</v>
+        <v>0.155721</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1697195</v>
+        <v>0.1546303333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1687876666666667</v>
+        <v>0.1510195</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1591735</v>
+        <v>0.1503411666666666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.155721</v>
+        <v>0.1418251666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1546303333333333</v>
+        <v>0.1400883333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1545295</v>
+        <v>0.1391198333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1510195</v>
+        <v>0.1366855</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1503411666666666</v>
+        <v>0.1309488333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1400883333333333</v>
+        <v>0.1298558333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1391198333333333</v>
+        <v>0.124032</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1390451666666667</v>
+        <v>0.1090121666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1309488333333333</v>
+        <v>0.096301</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1298558333333333</v>
+        <v>0.09034433333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.124032</v>
+        <v>0.08937400000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1145186666666667</v>
+        <v>0.08801283333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1090121666666667</v>
+        <v>0.0863825</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.096301</v>
+        <v>0.08523550000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08937400000000001</v>
+        <v>0.08523550000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08523550000000001</v>
+        <v>0.07960033333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.07960033333333334</v>
+        <v>0.07618066666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07618066666666666</v>
+        <v>0.07433283333333332</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07433283333333332</v>
+        <v>0.07285533333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07285533333333333</v>
+        <v>0.06630233333333334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.06630233333333334</v>
+        <v>0.05394016666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.05394016666666666</v>
+        <v>0.04783216666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.04783216666666667</v>
+        <v>0.04539516666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">

--- a/datamining/final_data/topic0_candidates.xlsx
+++ b/datamining/final_data/topic0_candidates.xlsx
@@ -442,21 +442,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7508568333333334</v>
+        <v>0.7274535416666668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7508568333333334</v>
+        <v>0.7274535416666668</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6036143333333333</v>
+        <v>0.5747304166666667</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5745125</v>
+        <v>0.550393125</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5655415</v>
+        <v>0.5424918750000001</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5578081666666667</v>
+        <v>0.5337577083333334</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5454543333333333</v>
+        <v>0.5173379166666666</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5375003333333332</v>
+        <v>0.5092954166666667</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5271465</v>
+        <v>0.500410625</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.520012</v>
+        <v>0.5002325000000001</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5139994999999999</v>
+        <v>0.494451875</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5136343333333333</v>
+        <v>0.4852704166666667</v>
       </c>
     </row>
     <row r="14">
@@ -566,57 +566,57 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5045263333333333</v>
+        <v>0.4829279166666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.494658</v>
+        <v>0.4696847916666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.494658</v>
+        <v>0.4652810416666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4944938333333333</v>
+        <v>0.4651275</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4896671666666667</v>
+        <v>0.4651275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4869528333333334</v>
+        <v>0.4638314583333334</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4632438333333333</v>
+        <v>0.4362922916666666</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4437838333333333</v>
+        <v>0.4188672916666666</v>
       </c>
     </row>
     <row r="22">
@@ -646,67 +646,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4170268333333333</v>
+        <v>0.3961560416666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4062676666666667</v>
+        <v>0.3807722916666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4046838333333334</v>
+        <v>0.3753345833333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4019606666666667</v>
+        <v>0.3727906249999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('다음', '같')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3985704999999999</v>
+        <v>0.3717758333333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3910939999999999</v>
+        <v>0.362965625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3844165</v>
+        <v>0.361725</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.359944</v>
+        <v>0.3402725</v>
       </c>
     </row>
     <row r="30">
@@ -726,37 +726,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3536341666666666</v>
+        <v>0.3310877083333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', '수')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3417386666666666</v>
+        <v>0.325945</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.340646</v>
+        <v>0.3172158333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3303665</v>
+        <v>0.316169375</v>
       </c>
     </row>
     <row r="34">
@@ -766,17 +766,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.328678</v>
+        <v>0.3139475</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3281675</v>
+        <v>0.304003125</v>
       </c>
     </row>
     <row r="36">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3198896666666667</v>
+        <v>0.3038620833333334</v>
       </c>
     </row>
     <row r="37">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.314714</v>
+        <v>0.293425</v>
       </c>
     </row>
     <row r="38">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.311379</v>
+        <v>0.29039875</v>
       </c>
     </row>
     <row r="39">
@@ -816,77 +816,77 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3058638333333333</v>
+        <v>0.2840422916666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2830045</v>
+        <v>0.2636629166666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2780903333333333</v>
+        <v>0.2586131250000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2736756666666667</v>
+        <v>0.2453141666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2632111666666667</v>
+        <v>0.2452545833333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2566013333333333</v>
+        <v>0.2448785416666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2561528333333334</v>
+        <v>0.2412777083333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2540521666666666</v>
+        <v>0.2409789583333333</v>
       </c>
     </row>
     <row r="47">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2495998333333334</v>
+        <v>0.2408797916666667</v>
       </c>
     </row>
     <row r="48">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2487758333333333</v>
+        <v>0.2391722916666667</v>
       </c>
     </row>
     <row r="49">
@@ -916,87 +916,87 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2404358333333333</v>
+        <v>0.2320347916666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2400335</v>
+        <v>0.22910125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.237358</v>
+        <v>0.223389375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.237127</v>
+        <v>0.223115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2330155</v>
+        <v>0.216239375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2330155</v>
+        <v>0.216239375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2238563333333334</v>
+        <v>0.2106795833333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2228396666666667</v>
+        <v>0.2075252083333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2224461666666667</v>
+        <v>0.2052004166666667</v>
       </c>
     </row>
     <row r="58">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2194395</v>
+        <v>0.203181875</v>
       </c>
     </row>
     <row r="59">
@@ -1016,37 +1016,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2131465</v>
+        <v>0.202813125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2063338333333333</v>
+        <v>0.1984485416666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2062275</v>
+        <v>0.1962397916666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2057708333333333</v>
+        <v>0.194529375</v>
       </c>
     </row>
     <row r="63">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2043663333333333</v>
+        <v>0.1876379166666667</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1944181666666667</v>
+        <v>0.1865602083333333</v>
       </c>
     </row>
     <row r="65">
@@ -1076,47 +1076,47 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1917113333333333</v>
+        <v>0.1798841666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1862071666666666</v>
+        <v>0.1730752083333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1851141666666667</v>
+        <v>0.1693208333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1777668333333333</v>
+        <v>0.1679889583333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1774806666666667</v>
+        <v>0.1674035416666667</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1752948333333333</v>
+        <v>0.1672485416666667</v>
       </c>
     </row>
     <row r="71">
@@ -1136,87 +1136,87 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1697195</v>
+        <v>0.163044375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1687876666666667</v>
+        <v>0.154656875</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1591735</v>
+        <v>0.1539420833333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.155721</v>
+        <v>0.1501304166666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1546303333333333</v>
+        <v>0.14243375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1510195</v>
+        <v>0.1386264583333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1503411666666666</v>
+        <v>0.1361714583333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1418251666666667</v>
+        <v>0.133356875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1400883333333333</v>
+        <v>0.130146875</v>
       </c>
     </row>
     <row r="80">
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1391198333333333</v>
+        <v>0.1297647916666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1366855</v>
+        <v>0.1253310416666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1309488333333333</v>
+        <v>0.1236454166666667</v>
       </c>
     </row>
     <row r="83">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1298558333333333</v>
+        <v>0.1202997916666667</v>
       </c>
     </row>
     <row r="84">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.124032</v>
+        <v>0.1188225</v>
       </c>
     </row>
     <row r="85">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1090121666666667</v>
+        <v>0.1042352083333333</v>
       </c>
     </row>
     <row r="86">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.096301</v>
+        <v>0.09105375</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09034433333333333</v>
+        <v>0.08560041666666666</v>
       </c>
     </row>
     <row r="88">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08937400000000001</v>
+        <v>0.08185000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -1316,57 +1316,57 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08801283333333333</v>
+        <v>0.08027104166666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0863825</v>
+        <v>0.078721875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08523550000000001</v>
+        <v>0.078721875</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08523550000000001</v>
+        <v>0.07763562500000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.07960033333333334</v>
+        <v>0.07200083333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.07618066666666666</v>
+        <v>0.07193291666666668</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07433283333333332</v>
+        <v>0.06777604166666666</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07285533333333333</v>
+        <v>0.06721166666666667</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.06630233333333334</v>
+        <v>0.06237791666666667</v>
       </c>
     </row>
     <row r="98">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05394016666666666</v>
+        <v>0.04507770833333333</v>
       </c>
     </row>
     <row r="99">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04783216666666667</v>
+        <v>0.04399520833333333</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.04539516666666667</v>
+        <v>0.04161145833333334</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0368575</v>
+        <v>0.03039187500000001</v>
       </c>
     </row>
   </sheetData>
